--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 0 (8, 45, 1, 2, 24)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(8, 45, 1, 2, 24)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 0 (8, 45, 1, 2, 24)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(8, 45, 1, 2, 24)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999620473726</v>
+        <v>0.9999999621897643</v>
       </c>
       <c r="E2">
-        <v>0.9999999620473726</v>
+        <v>0.9999999621897643</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999998566152427</v>
+        <v>0.9999998585033933</v>
       </c>
       <c r="E3">
-        <v>0.9999998566152427</v>
+        <v>0.9999998585033933</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.4533916093895519</v>
+        <v>0.453001369537009</v>
       </c>
       <c r="E4">
-        <v>0.4533916093895519</v>
+        <v>0.453001369537009</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.326857773736158E-09</v>
+        <v>1.211846502873738E-09</v>
       </c>
       <c r="E5">
-        <v>1.326857773736158E-09</v>
+        <v>1.211846502873738E-09</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9967052623684401</v>
+        <v>0.9967153217915514</v>
       </c>
       <c r="E6">
-        <v>0.9967052623684401</v>
+        <v>0.9967153217915514</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9874888071984725</v>
+        <v>0.0001256165523029433</v>
       </c>
       <c r="E7">
-        <v>0.01251119280152746</v>
+        <v>0.9998743834476971</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9880985784335514</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.01190142156644858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9869206784321386</v>
+        <v>0.05386318847245603</v>
       </c>
       <c r="E9">
-        <v>0.0130793215678614</v>
+        <v>0.9461368115275439</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9878774813627632</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.01212251863723679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9882528240350987</v>
+        <v>0.9999950180844207</v>
       </c>
       <c r="E11">
-        <v>0.01174717596490127</v>
+        <v>4.981915579294061E-06</v>
       </c>
       <c r="F11">
-        <v>3.922585248947144</v>
+        <v>5.108706474304199</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9999999999685132</v>
+        <v>0.999999999967909</v>
       </c>
       <c r="E12">
-        <v>0.9999999999685132</v>
+        <v>0.999999999967909</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9999999999821867</v>
+        <v>0.9999999999815183</v>
       </c>
       <c r="E13">
-        <v>0.9999999999821867</v>
+        <v>0.9999999999815183</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.0966958939965735</v>
+        <v>0.09714111744122719</v>
       </c>
       <c r="E14">
-        <v>0.0966958939965735</v>
+        <v>0.09714111744122719</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="E15">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999987</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9996878861156465</v>
+        <v>0.9996839453967643</v>
       </c>
       <c r="E16">
-        <v>0.9996878861156465</v>
+        <v>0.9996839453967643</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9970901031117068</v>
+        <v>6.816241138417769E-06</v>
       </c>
       <c r="E17">
-        <v>0.00290989688829324</v>
+        <v>0.9999931837588616</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9970211297718682</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.002978870228131814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9968772572434464</v>
+        <v>8.949345494842818E-07</v>
       </c>
       <c r="E19">
-        <v>0.003122742756553554</v>
+        <v>0.9999991050654505</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9968682255622424</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.003131774437757584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9972774351927897</v>
+        <v>0.9999999717960911</v>
       </c>
       <c r="E21">
-        <v>0.002722564807210337</v>
+        <v>2.820390887503521E-08</v>
       </c>
       <c r="F21">
-        <v>9.151128768920898</v>
+        <v>11.71760272979736</v>
       </c>
       <c r="G21">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
